--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyungsoo.kim\Workspaces\UiPath\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507B698F-FD7F-41E6-AAB2-D878615AC7E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D917D2-5900-4BA0-87E1-1401C26B885B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="300" windowWidth="17400" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
@@ -219,13 +219,7 @@
     <t>깊이 중첩된 구조를 방지하려면 워크플로를 더 작은 구성 요소로 분할하는 것을 고려하세요.</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>오픈 브라우져가 액티비지가 사용되지 않음</t>
-  </si>
-  <si>
-    <t>Checks\Standard\UnusedVariables.xaml</t>
   </si>
   <si>
     <t>오픈 브라우저 액티비티는 브라우저 탭이나 창을 열 수 있는 편리한 방법을 제공하며, 웹 자동화 관련 활동의 컨테이너 역할을 하기도 합니다. 이 때문에 개방형 애플리케이션(Open Application)이나 Start Process(시작 프로세스) 대신 브라우저로 작업하는 것이 선호되어야 합니다.</t>
@@ -379,6 +373,14 @@
   </si>
   <si>
     <t>체크 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,21 +404,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -424,13 +426,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -541,9 +543,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{EDFA8466-F615-4518-BC7F-F39A8C95C919}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,46 +847,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="14.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -947,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -991,12 +991,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>23</v>
@@ -1008,13 +1008,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -1165,12 +1165,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>56</v>
@@ -1180,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -1209,109 +1209,109 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" s="10" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1329,80 +1329,80 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="31.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyungsoo.kim\Workspaces\UiPath\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507B698F-FD7F-41E6-AAB2-D878615AC7E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16956CC-5C61-448E-9CE7-499EBAA4EF14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="300" windowWidth="17400" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37665" yWindow="-1530" windowWidth="37215" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
     <sheet name="프로젝트" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>Yes</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Checks\Standard\UndocumentedDelay.xaml</t>
   </si>
   <si>
-    <t>실행 지연은 전체 로봇 성능에 불필요하게 영향을 미칠 수 있으므로 사용을 최소한으로 제한해야 합니다.동기화에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-ui-synchronization을 참조하세요.</t>
-  </si>
-  <si>
     <t>애플리케이션 상태를 대기하기 위해 다른 메커니즘을 사용하는 것을 고려하세요. 지연을 사용해야 하는 경우, 사용 이유를 설명하는 주석을 추가하세요.</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Checks\Standard\EmptyCatchBlock.xaml</t>
-  </si>
-  <si>
-    <t>예외는 목적을 가지고 잡아야 하며, 오류 메시지를 예방할 수 있어야 합니다. 이 때문에 예외 처리 자체 외에 Try Catch 액티비티의 캐치 블록에 로그 메시지를 삽입하는 것이 좋아요. 오류 처리에 대한 자세한 내용은 https://studio.uipath.com/docs/project-organization#section-error-handling을 참조하세요.</t>
   </si>
   <si>
     <t>예외를 처리하기 위한 조치가 취해지지 않는 경우, 최소한 로그 메시지 액티비티을 포함하여 예외를 다시 발생시키토록 구성하세요.</t>
@@ -88,9 +82,6 @@
 }</t>
   </si>
   <si>
-    <t>프로젝트의 변수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 변수에 대한 명명 규칙을 지시하는 정규식을 수신한다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
-  </si>
-  <si>
     <t>모든 변수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>자동화 대상 컨트롤이 SimulateType 또는 SendWindowMessages를 지원하는 경우 SimulateType 또는 SendWindowMessages를  사용하세요.</t>
   </si>
   <si>
-    <t>선택자에서 동일한 항목 사용</t>
-  </si>
-  <si>
     <t>Checks\Standard\LargeIdxInSelector.xaml</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
 }</t>
   </si>
   <si>
-    <t>idx 속성은 인터페이스 계층의 순서에 따라 동일한 선택자로 요소를 구분하는 데 사용됩니다. 이 순서는 화면의 요소가 변경되면 변경될 수 있으므로 idx 속성의 값을 낮은 값으로 유지하여 잘못된 요소의 선택을 방지해야 합니다. 이 점검은 idx 속성의 값에 대한 임계값을 설정합니다. 선택기에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-selectors을 참조하세요</t>
-  </si>
-  <si>
     <t>idx 속성에 덜 의존하도록 선택자에서 다른 속성을 사용하는 것을 고려하세요.</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>Checks\Standard\UnnecessarySequenceOrFlowchart.xaml</t>
   </si>
   <si>
-    <t>워크플로에는 특정 목적에 사용되는 시퀀스만 포함되어야 합니다. 빈 시퀀스는 워크플로를 어수선하게 만들 뿐이므로 사용하지 않아요. 또한 (다른 순서라 하더라도) 하나의 내부 활동만 포함하는 순서나 워크플로우를 대개 프로젝트의 기능성에 영향을 주지 않고 제거할 수 있어요. 시퀀스를 제거하려면 UiPath Studio (https://studio.uipath.com/docs/the-user-interface#section-the-context-menu).에서 컨텍스트 메뉴의 시퀀스 제거 옵션을 사용하세요.</t>
-  </si>
-  <si>
     <t>비어 있거나 하나의 활동만 포함하는 시퀀스 또는 플로우차트를 제거하세요.</t>
   </si>
   <si>
@@ -162,15 +144,6 @@
   </si>
   <si>
     <t>Checks\Standard\UndocumentedUnreachableActivities.xaml</t>
-  </si>
-  <si>
-    <t>워크플로우에는 실행을 위해 필요한 활동만 있어야 하며, 플로우차트의 노드에 설명되거나 연결되지 않은 활동은 제거되어야 합니다. 코멘트 활동을 유지해야 하는 경우 이유를 설명하기 위해 주석을 추가하세요.</t>
-  </si>
-  <si>
-    <t>실행되지 않은 액티비티을 제거하는 것을 고려하세요.</t>
-  </si>
-  <si>
-    <t>액티비티가 너무 많이 중첩되어 있음</t>
   </si>
   <si>
     <t>Checks\Standard\DeeplyNestedActivities.xaml</t>
@@ -181,31 +154,7 @@
 }</t>
   </si>
   <si>
-    <t>변수는 워크플로우의 구성을 개선하고 다른 범위에서 의도하지 않은 사용을 방지하기 위해 가능한 가장 안쪽 범위에서 정의되어야 합니다.</t>
-  </si>
-  <si>
-    <t>변수의 범위를 제한하세요.</t>
-  </si>
-  <si>
-    <t>동일 이름의 변수가 있음</t>
-  </si>
-  <si>
     <t>Checks\Standard\OpenBrowserNotUsed.xaml</t>
-  </si>
-  <si>
-    <t>기술적으로 두 변수의 이름이 같은 것은 가능하지만, 어떤 변수가 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
-  </si>
-  <si>
-    <t>변수가 서로 다른 범위에 있더라도 변수에 대한 고유한 이름을 정의하세요.</t>
-  </si>
-  <si>
-    <t>Checks\Standard\HotkeyWithoutSelector.xaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여러 번 중접된 액티비티임 </t>
-  </si>
-  <si>
-    <t>Checks\Standard\RepeatedActivityName.xaml</t>
   </si>
   <si>
     <t>{
@@ -213,64 +162,19 @@
 }</t>
   </si>
   <si>
-    <t>일반적으로 중첩된 활동이 너무 많은 워크플로우를 보고 이해하는 것이 더 어렵기 때문에 중첩된 구조를 피하는 것이 좋습니다. 대신 워크플로를 작은 워크플로로 분리하고 워크플로 파일 호출 작업을 사용하여 워크플로를 호출하는 것이 더 나을 수 있어요.</t>
-  </si>
-  <si>
-    <t>깊이 중첩된 구조를 방지하려면 워크플로를 더 작은 구성 요소로 분할하는 것을 고려하세요.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>오픈 브라우져가 액티비지가 사용되지 않음</t>
-  </si>
-  <si>
-    <t>Checks\Standard\UnusedVariables.xaml</t>
-  </si>
-  <si>
-    <t>오픈 브라우저 액티비티는 브라우저 탭이나 창을 열 수 있는 편리한 방법을 제공하며, 웹 자동화 관련 활동의 컨테이너 역할을 하기도 합니다. 이 때문에 개방형 애플리케이션(Open Application)이나 Start Process(시작 프로세스) 대신 브라우저로 작업하는 것이 선호되어야 합니다.</t>
-  </si>
-  <si>
-    <t>Open Application 또는 Start Process 대신 Open Browser의 사용을 고려하세요.</t>
-  </si>
-  <si>
-    <t>선택자 없이 핫키가 사용됨</t>
-  </si>
-  <si>
     <t>Checks\Standard\EmptyThenBlock.xaml</t>
   </si>
   <si>
-    <t>선택자 없이 핫키 작업 전송은 예정된 실행을 방지하는 모든 응용 프로그램(예: Windows 알림 및 바이러스 백신 팝업)에 의해 차단될 수 있어요. 이 때문에 선택자를 사용하거나 선택자가 있는 컨테이너에 포함시키는 것이 좋아요(예: 창 연결 또는 브라우저 연결).</t>
-  </si>
-  <si>
-    <t>Send Hotkey activity를 사용할 때 선택자를 지정하거나 컨테이너 안에 포함하세요.</t>
-  </si>
-  <si>
     <t>반복되는 액티비티 이름</t>
   </si>
   <si>
     <t>Checks\Custom\VariableMinimumScope\VariableMinimumScope.xaml</t>
   </si>
   <si>
-    <t>액티비티의 이름은 그것이 어떻게 사용되고 있는지를 명확하게 알려야 합니다. 기본 이름은 대부분의 경우 좋은 설명을 제공하지만, 때로는 너무 일반적이어서 문맥이 명확하지 않을 때는 정보를 더 추가하는 것이 좋아요. 이 검사는 동일한 일반 이름이 여러 번 사용되는 것을 나타낼 수 있는 동일한 이름을 가진 활동을 검색합니다. 이 점검은 얼마나 많은 활동들이 동일한 이름을 가질 수 있는 지의 임계값을 설정합니다.</t>
-  </si>
-  <si>
-    <t>좀 더 자세한 제목을 추가하여 액티비티가 무엇을 하는지를 이해하는 것이 나은지 확인하세요.</t>
-  </si>
-  <si>
-    <t>사용되지 않은 변수</t>
-  </si>
-  <si>
     <t>Checks\Custom\VariableOverridesVariable.xaml</t>
   </si>
   <si>
     <t>비워진 조건문 구문</t>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
-  </si>
-  <si>
-    <t>액티비티(또는 FlowDecision Activision Activity)에서는 항상 Then 블록(True branch)을 사용하도록 조건을 정의하는 것이 좋아요. 빈 Then 블록(True Branch)을 가지면 워크플로를 이해하기 어려워집니다.</t>
   </si>
   <si>
     <t>If Then 블록(FlowDecision의 경우 True branch, True branch)에서 작업이 수행되도록 조건을 다시 정의 하세요.</t>
@@ -345,40 +249,178 @@
     <t>모든 인수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
   </si>
   <si>
-    <t>변수와 동일한 인수 이름이 있음</t>
-  </si>
-  <si>
-    <t>변수와 인수의 이름이 같은 경우 기술적으로 가능하지만, 어떤 것이 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
-  </si>
-  <si>
     <t>변수 및 인수에 대한 고유한 이름을 정의하세요.</t>
   </si>
   <si>
-    <t>워크플로에는 실행에 필요한 변수 및 인수만 있어야 합니다. 사용되지 않는 변수와 인수는 프로젝트를 더 이해하기 어렵게 만들어 제거되어야 합니다. 사용되지 않는 변수를 모두 제거하려면 UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)의 "사용되지 않은 변수 제거" 버튼을 사용하세요.</t>
+    <t>실행</t>
+  </si>
+  <si>
+    <t>이슈</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>조치</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>제안</t>
+  </si>
+  <si>
+    <t>체크 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\RepeatedActivityName.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\HotkeyWithoutSelector.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과도하게 중첩된 액티비티 구조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변수의 범위가 필요 이상으로 큼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 범위를 가능한 작은 범위로 제한하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위는 다르지만 동일한 변수이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자에서 큰 idx 값을 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행되지 않을 액티비티을 제거하는 것을 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도하게  중첩된 구조를 방지하려면 워크플로를 더 작은 구성 요소로 분할하는 것을 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 브라우져가 액티비티가 사용되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+오픈 브라우저 액티비티는 브라우저 탭이나 창을 열 수 있는 편리한 방법을 제공하며, 웹 자동화 관련 활동의 컨테이너 역할을 하기도 합니다. 이 때문에 개방형 애플리케이션(Open Application)이나 Start Process(시작 프로세스) 대신 브라우저로 작업하는 것이 선호되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Open Application 또는 Start Process 대신 Open Browser의 사용을 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자 없이 핫키 입력 액티비트가 사용됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 더 자세한 제목을 추가하여 액티비티가 무엇을 하는지를 쉽게 이해할수 있도록 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용되지 않은 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용되지 않는 변수 및 인수를 제거하세요.</t>
-  </si>
-  <si>
-    <t>실행</t>
-  </si>
-  <si>
-    <t>이슈</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>조치</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>제안</t>
-  </si>
-  <si>
-    <t>체크 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수는 워크플로우의 구성을 개선하고 다른 범위에서 의도하지 않은 사용을 방지하기 위해 가능한 가장 안쪽 범위에서 정의되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술적으로 두 변수의 이름이 같은 것은 가능하지만, 어떤 변수가 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수가 서로 다른 범위에 있더라도 변수에 대한 고유한 이름을 정의하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인수와 동일한 변수이름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Hotkey activity를 사용할 때 선택자를 지정하거나 컨테이너 안에 포함하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티비티의 이름은 그것이 어떻게 사용되고 있는지를 명확하게 알려야 합니다. 기본 이름은 대부분의 경우 좋은 설명을 제공하지만, 때로는 너무 일반적이어서 문맥이 명확하지 않을 때는 정보를 더 추가하는 것이 좋습니다. 이 검사는 동일한 일반 이름이 여러 번 사용되는 것을 나타낼 수 있는 동일한 이름을 가진 활동을 검색합니다. 이 점검은 얼마나 많은 활동들이 동일한 이름을 가질 수 있는 지의 임계값을 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로우에는 실행에 필요한 변수 및 인수만 있어야 합니다. 사용되지 않는 변수와 인수는 프로젝트를 더 이해하기 어렵게 만들어 제거되어야 합니다. 사용되지 않는 변수를 모두 제거하려면 UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)의 "사용되지 않은 변수 제거" 버튼을 사용하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If Then 블록(FlowDecision의 경우 True branch)에서 작업이 수행되도록 조건을 다시 정의 하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티비티(또는 FlowDecision Activision Activity)에서는 항상 Then 블록(True branch)을 사용하도록 조건을 정의하는 것이 좋습니다. 빈 Then 블록(True Branch)을 가지면 워크플로를 이해하기 어려워집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수와 인수의 이름이 같은 경우 기술적으로 가능하지만, 어떤 것이 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자 없이 핫키 작업 전송은 예정된 실행을 방지하는 모든 응용 프로그램(예: Windows 알림 및 바이러스 백신 팝업)에 의해 차단될 수 있어요. 이 때문에 선택자를 사용하거나 선택자가 있는 컨테이너에 포함시키는 것이 좋습니다(예: 창 연결 또는 브라우저 연결).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적으로 중첩된 활동이 너무 많은 워크플로우를 보고 이해하는 것이 더 어렵기 때문에 중첩된 구조를 피하는 것이 좋습니다. 대신 워크플로를 작은 워크플로로 분리하고 워크플로 파일 호출 작업을 사용하여 워크플로를 호출하는 것이 더 나을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로우에는 실행을 위해 필요한 활동만 있어야 하며, 플로우차트의 노드에 설명되거나 연결되지 않은 활동은 제거되어야 합니다. 코멘트 활동을 유지해야 하는 경우 이유를 설명하기 위해 주석을 추가하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로에는 특정 목적에 사용되는 시퀀스만 포함되어야 합니다. 빈 시퀀스는 워크플로를 어수선하게 만들 뿐이므로 사용하지 않아요. 또한 (다른 순서라 하더라도) 하나의 내부 활동만 포함하는 순서나 워크플로우를 대개 프로젝트의 기능성에 영향을 주지 않고 제거할 수 있습니다. 시퀀스를 제거하려면 UiPath Studio (https://studio.uipath.com/docs/the-user-interface#section-the-context-menu) 에서 컨텍스트 메뉴의 시퀀스 제거 옵션을 사용하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx 속성은 인터페이스 계층의 순서에 따라 동일한 선택자로 요소를 구분하는 데 사용됩니다. 이 순서는 화면의 요소가 변경되면 변경될 수 있으므로 idx 속성의 값을 낮은 값으로 유지하여 잘못된 요소의 선택을 방지해야 합니다. 이 점검은 idx 속성의 값에 대한 임계값을 설정합니다. 선택기에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-selectors을 참조하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트의 변수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 변수에 대한 명명 규칙을 지시하는 정규식을 기술합니다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외는 목적을 가지고 잡아야 하며, 오류 메시지를 예방할 수 있어야 합니다. 이 때문에 예외 처리 자체 외에 Try Catch 액티비티의 캐치 블록에 로그 메시지를 삽입하는 것이 좋습니다. 오류 처리에 대한 자세한 내용은 https://studio.uipath.com/docs/project-organization#section-error-handling을 참조하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 지연은 전체 로봇 성능에 불필요하게 영향을 미칠 수 있으므로 사용을 최소한으로 제한해야 합니다. 동기화에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-ui-synchronization을 참조하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -434,6 +476,32 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -487,14 +555,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -518,32 +589,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{EDFA8466-F615-4518-BC7F-F39A8C95C919}"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
+    <cellStyle name="표준_워크플로우" xfId="3" xr:uid="{7A39A625-7038-4CE3-83CF-CCE8FF3C883D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,475 +921,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="14"/>
+    <col min="9" max="9" width="41.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="51.5703125" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="13" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G20" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1329,80 +1433,80 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="31.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyungsoo.kim\Workspaces\UiPath\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D917D2-5900-4BA0-87E1-1401C26B885B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16956CC-5C61-448E-9CE7-499EBAA4EF14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37665" yWindow="-1530" windowWidth="37215" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
     <sheet name="프로젝트" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>Yes</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Checks\Standard\UndocumentedDelay.xaml</t>
   </si>
   <si>
-    <t>실행 지연은 전체 로봇 성능에 불필요하게 영향을 미칠 수 있으므로 사용을 최소한으로 제한해야 합니다.동기화에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-ui-synchronization을 참조하세요.</t>
-  </si>
-  <si>
     <t>애플리케이션 상태를 대기하기 위해 다른 메커니즘을 사용하는 것을 고려하세요. 지연을 사용해야 하는 경우, 사용 이유를 설명하는 주석을 추가하세요.</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Checks\Standard\EmptyCatchBlock.xaml</t>
-  </si>
-  <si>
-    <t>예외는 목적을 가지고 잡아야 하며, 오류 메시지를 예방할 수 있어야 합니다. 이 때문에 예외 처리 자체 외에 Try Catch 액티비티의 캐치 블록에 로그 메시지를 삽입하는 것이 좋아요. 오류 처리에 대한 자세한 내용은 https://studio.uipath.com/docs/project-organization#section-error-handling을 참조하세요.</t>
   </si>
   <si>
     <t>예외를 처리하기 위한 조치가 취해지지 않는 경우, 최소한 로그 메시지 액티비티을 포함하여 예외를 다시 발생시키토록 구성하세요.</t>
@@ -88,9 +82,6 @@
 }</t>
   </si>
   <si>
-    <t>프로젝트의 변수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 변수에 대한 명명 규칙을 지시하는 정규식을 수신한다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
-  </si>
-  <si>
     <t>모든 변수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>자동화 대상 컨트롤이 SimulateType 또는 SendWindowMessages를 지원하는 경우 SimulateType 또는 SendWindowMessages를  사용하세요.</t>
   </si>
   <si>
-    <t>선택자에서 동일한 항목 사용</t>
-  </si>
-  <si>
     <t>Checks\Standard\LargeIdxInSelector.xaml</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
 }</t>
   </si>
   <si>
-    <t>idx 속성은 인터페이스 계층의 순서에 따라 동일한 선택자로 요소를 구분하는 데 사용됩니다. 이 순서는 화면의 요소가 변경되면 변경될 수 있으므로 idx 속성의 값을 낮은 값으로 유지하여 잘못된 요소의 선택을 방지해야 합니다. 이 점검은 idx 속성의 값에 대한 임계값을 설정합니다. 선택기에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-selectors을 참조하세요</t>
-  </si>
-  <si>
     <t>idx 속성에 덜 의존하도록 선택자에서 다른 속성을 사용하는 것을 고려하세요.</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>Checks\Standard\UnnecessarySequenceOrFlowchart.xaml</t>
   </si>
   <si>
-    <t>워크플로에는 특정 목적에 사용되는 시퀀스만 포함되어야 합니다. 빈 시퀀스는 워크플로를 어수선하게 만들 뿐이므로 사용하지 않아요. 또한 (다른 순서라 하더라도) 하나의 내부 활동만 포함하는 순서나 워크플로우를 대개 프로젝트의 기능성에 영향을 주지 않고 제거할 수 있어요. 시퀀스를 제거하려면 UiPath Studio (https://studio.uipath.com/docs/the-user-interface#section-the-context-menu).에서 컨텍스트 메뉴의 시퀀스 제거 옵션을 사용하세요.</t>
-  </si>
-  <si>
     <t>비어 있거나 하나의 활동만 포함하는 시퀀스 또는 플로우차트를 제거하세요.</t>
   </si>
   <si>
@@ -162,15 +144,6 @@
   </si>
   <si>
     <t>Checks\Standard\UndocumentedUnreachableActivities.xaml</t>
-  </si>
-  <si>
-    <t>워크플로우에는 실행을 위해 필요한 활동만 있어야 하며, 플로우차트의 노드에 설명되거나 연결되지 않은 활동은 제거되어야 합니다. 코멘트 활동을 유지해야 하는 경우 이유를 설명하기 위해 주석을 추가하세요.</t>
-  </si>
-  <si>
-    <t>실행되지 않은 액티비티을 제거하는 것을 고려하세요.</t>
-  </si>
-  <si>
-    <t>액티비티가 너무 많이 중첩되어 있음</t>
   </si>
   <si>
     <t>Checks\Standard\DeeplyNestedActivities.xaml</t>
@@ -181,31 +154,7 @@
 }</t>
   </si>
   <si>
-    <t>변수는 워크플로우의 구성을 개선하고 다른 범위에서 의도하지 않은 사용을 방지하기 위해 가능한 가장 안쪽 범위에서 정의되어야 합니다.</t>
-  </si>
-  <si>
-    <t>변수의 범위를 제한하세요.</t>
-  </si>
-  <si>
-    <t>동일 이름의 변수가 있음</t>
-  </si>
-  <si>
     <t>Checks\Standard\OpenBrowserNotUsed.xaml</t>
-  </si>
-  <si>
-    <t>기술적으로 두 변수의 이름이 같은 것은 가능하지만, 어떤 변수가 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
-  </si>
-  <si>
-    <t>변수가 서로 다른 범위에 있더라도 변수에 대한 고유한 이름을 정의하세요.</t>
-  </si>
-  <si>
-    <t>Checks\Standard\HotkeyWithoutSelector.xaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여러 번 중접된 액티비티임 </t>
-  </si>
-  <si>
-    <t>Checks\Standard\RepeatedActivityName.xaml</t>
   </si>
   <si>
     <t>{
@@ -213,58 +162,19 @@
 }</t>
   </si>
   <si>
-    <t>일반적으로 중첩된 활동이 너무 많은 워크플로우를 보고 이해하는 것이 더 어렵기 때문에 중첩된 구조를 피하는 것이 좋습니다. 대신 워크플로를 작은 워크플로로 분리하고 워크플로 파일 호출 작업을 사용하여 워크플로를 호출하는 것이 더 나을 수 있어요.</t>
-  </si>
-  <si>
-    <t>깊이 중첩된 구조를 방지하려면 워크플로를 더 작은 구성 요소로 분할하는 것을 고려하세요.</t>
-  </si>
-  <si>
-    <t>오픈 브라우져가 액티비지가 사용되지 않음</t>
-  </si>
-  <si>
-    <t>오픈 브라우저 액티비티는 브라우저 탭이나 창을 열 수 있는 편리한 방법을 제공하며, 웹 자동화 관련 활동의 컨테이너 역할을 하기도 합니다. 이 때문에 개방형 애플리케이션(Open Application)이나 Start Process(시작 프로세스) 대신 브라우저로 작업하는 것이 선호되어야 합니다.</t>
-  </si>
-  <si>
-    <t>Open Application 또는 Start Process 대신 Open Browser의 사용을 고려하세요.</t>
-  </si>
-  <si>
-    <t>선택자 없이 핫키가 사용됨</t>
-  </si>
-  <si>
     <t>Checks\Standard\EmptyThenBlock.xaml</t>
   </si>
   <si>
-    <t>선택자 없이 핫키 작업 전송은 예정된 실행을 방지하는 모든 응용 프로그램(예: Windows 알림 및 바이러스 백신 팝업)에 의해 차단될 수 있어요. 이 때문에 선택자를 사용하거나 선택자가 있는 컨테이너에 포함시키는 것이 좋아요(예: 창 연결 또는 브라우저 연결).</t>
-  </si>
-  <si>
-    <t>Send Hotkey activity를 사용할 때 선택자를 지정하거나 컨테이너 안에 포함하세요.</t>
-  </si>
-  <si>
     <t>반복되는 액티비티 이름</t>
   </si>
   <si>
     <t>Checks\Custom\VariableMinimumScope\VariableMinimumScope.xaml</t>
   </si>
   <si>
-    <t>액티비티의 이름은 그것이 어떻게 사용되고 있는지를 명확하게 알려야 합니다. 기본 이름은 대부분의 경우 좋은 설명을 제공하지만, 때로는 너무 일반적이어서 문맥이 명확하지 않을 때는 정보를 더 추가하는 것이 좋아요. 이 검사는 동일한 일반 이름이 여러 번 사용되는 것을 나타낼 수 있는 동일한 이름을 가진 활동을 검색합니다. 이 점검은 얼마나 많은 활동들이 동일한 이름을 가질 수 있는 지의 임계값을 설정합니다.</t>
-  </si>
-  <si>
-    <t>좀 더 자세한 제목을 추가하여 액티비티가 무엇을 하는지를 이해하는 것이 나은지 확인하세요.</t>
-  </si>
-  <si>
-    <t>사용되지 않은 변수</t>
-  </si>
-  <si>
     <t>Checks\Custom\VariableOverridesVariable.xaml</t>
   </si>
   <si>
     <t>비워진 조건문 구문</t>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
-  </si>
-  <si>
-    <t>액티비티(또는 FlowDecision Activision Activity)에서는 항상 Then 블록(True branch)을 사용하도록 조건을 정의하는 것이 좋아요. 빈 Then 블록(True Branch)을 가지면 워크플로를 이해하기 어려워집니다.</t>
   </si>
   <si>
     <t>If Then 블록(FlowDecision의 경우 True branch, True branch)에서 작업이 수행되도록 조건을 다시 정의 하세요.</t>
@@ -339,48 +249,178 @@
     <t>모든 인수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
   </si>
   <si>
-    <t>변수와 동일한 인수 이름이 있음</t>
-  </si>
-  <si>
-    <t>변수와 인수의 이름이 같은 경우 기술적으로 가능하지만, 어떤 것이 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
-  </si>
-  <si>
     <t>변수 및 인수에 대한 고유한 이름을 정의하세요.</t>
   </si>
   <si>
-    <t>워크플로에는 실행에 필요한 변수 및 인수만 있어야 합니다. 사용되지 않는 변수와 인수는 프로젝트를 더 이해하기 어렵게 만들어 제거되어야 합니다. 사용되지 않는 변수를 모두 제거하려면 UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)의 "사용되지 않은 변수 제거" 버튼을 사용하세요.</t>
+    <t>실행</t>
+  </si>
+  <si>
+    <t>이슈</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>조치</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>제안</t>
+  </si>
+  <si>
+    <t>체크 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\RepeatedActivityName.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\HotkeyWithoutSelector.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과도하게 중첩된 액티비티 구조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변수의 범위가 필요 이상으로 큼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 범위를 가능한 작은 범위로 제한하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위는 다르지만 동일한 변수이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자에서 큰 idx 값을 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행되지 않을 액티비티을 제거하는 것을 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도하게  중첩된 구조를 방지하려면 워크플로를 더 작은 구성 요소로 분할하는 것을 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 브라우져가 액티비티가 사용되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+오픈 브라우저 액티비티는 브라우저 탭이나 창을 열 수 있는 편리한 방법을 제공하며, 웹 자동화 관련 활동의 컨테이너 역할을 하기도 합니다. 이 때문에 개방형 애플리케이션(Open Application)이나 Start Process(시작 프로세스) 대신 브라우저로 작업하는 것이 선호되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Open Application 또는 Start Process 대신 Open Browser의 사용을 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자 없이 핫키 입력 액티비트가 사용됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 더 자세한 제목을 추가하여 액티비티가 무엇을 하는지를 쉽게 이해할수 있도록 고려하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용되지 않은 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용되지 않는 변수 및 인수를 제거하세요.</t>
-  </si>
-  <si>
-    <t>실행</t>
-  </si>
-  <si>
-    <t>이슈</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>조치</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>제안</t>
-  </si>
-  <si>
-    <t>체크 파일 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수는 워크플로우의 구성을 개선하고 다른 범위에서 의도하지 않은 사용을 방지하기 위해 가능한 가장 안쪽 범위에서 정의되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술적으로 두 변수의 이름이 같은 것은 가능하지만, 어떤 변수가 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수가 서로 다른 범위에 있더라도 변수에 대한 고유한 이름을 정의하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인수와 동일한 변수이름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Hotkey activity를 사용할 때 선택자를 지정하거나 컨테이너 안에 포함하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티비티의 이름은 그것이 어떻게 사용되고 있는지를 명확하게 알려야 합니다. 기본 이름은 대부분의 경우 좋은 설명을 제공하지만, 때로는 너무 일반적이어서 문맥이 명확하지 않을 때는 정보를 더 추가하는 것이 좋습니다. 이 검사는 동일한 일반 이름이 여러 번 사용되는 것을 나타낼 수 있는 동일한 이름을 가진 활동을 검색합니다. 이 점검은 얼마나 많은 활동들이 동일한 이름을 가질 수 있는 지의 임계값을 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로우에는 실행에 필요한 변수 및 인수만 있어야 합니다. 사용되지 않는 변수와 인수는 프로젝트를 더 이해하기 어렵게 만들어 제거되어야 합니다. 사용되지 않는 변수를 모두 제거하려면 UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)의 "사용되지 않은 변수 제거" 버튼을 사용하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If Then 블록(FlowDecision의 경우 True branch)에서 작업이 수행되도록 조건을 다시 정의 하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티비티(또는 FlowDecision Activision Activity)에서는 항상 Then 블록(True branch)을 사용하도록 조건을 정의하는 것이 좋습니다. 빈 Then 블록(True Branch)을 가지면 워크플로를 이해하기 어려워집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수와 인수의 이름이 같은 경우 기술적으로 가능하지만, 어떤 것이 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자 없이 핫키 작업 전송은 예정된 실행을 방지하는 모든 응용 프로그램(예: Windows 알림 및 바이러스 백신 팝업)에 의해 차단될 수 있어요. 이 때문에 선택자를 사용하거나 선택자가 있는 컨테이너에 포함시키는 것이 좋습니다(예: 창 연결 또는 브라우저 연결).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적으로 중첩된 활동이 너무 많은 워크플로우를 보고 이해하는 것이 더 어렵기 때문에 중첩된 구조를 피하는 것이 좋습니다. 대신 워크플로를 작은 워크플로로 분리하고 워크플로 파일 호출 작업을 사용하여 워크플로를 호출하는 것이 더 나을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로우에는 실행을 위해 필요한 활동만 있어야 하며, 플로우차트의 노드에 설명되거나 연결되지 않은 활동은 제거되어야 합니다. 코멘트 활동을 유지해야 하는 경우 이유를 설명하기 위해 주석을 추가하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로에는 특정 목적에 사용되는 시퀀스만 포함되어야 합니다. 빈 시퀀스는 워크플로를 어수선하게 만들 뿐이므로 사용하지 않아요. 또한 (다른 순서라 하더라도) 하나의 내부 활동만 포함하는 순서나 워크플로우를 대개 프로젝트의 기능성에 영향을 주지 않고 제거할 수 있습니다. 시퀀스를 제거하려면 UiPath Studio (https://studio.uipath.com/docs/the-user-interface#section-the-context-menu) 에서 컨텍스트 메뉴의 시퀀스 제거 옵션을 사용하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx 속성은 인터페이스 계층의 순서에 따라 동일한 선택자로 요소를 구분하는 데 사용됩니다. 이 순서는 화면의 요소가 변경되면 변경될 수 있으므로 idx 속성의 값을 낮은 값으로 유지하여 잘못된 요소의 선택을 방지해야 합니다. 이 점검은 idx 속성의 값에 대한 임계값을 설정합니다. 선택기에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-selectors을 참조하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트의 변수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 변수에 대한 명명 규칙을 지시하는 정규식을 기술합니다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외는 목적을 가지고 잡아야 하며, 오류 메시지를 예방할 수 있어야 합니다. 이 때문에 예외 처리 자체 외에 Try Catch 액티비티의 캐치 블록에 로그 메시지를 삽입하는 것이 좋습니다. 오류 처리에 대한 자세한 내용은 https://studio.uipath.com/docs/project-organization#section-error-handling을 참조하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 지연은 전체 로봇 성능에 불필요하게 영향을 미칠 수 있으므로 사용을 최소한으로 제한해야 합니다. 동기화에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-ui-synchronization을 참조하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -404,21 +444,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -426,16 +466,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -489,14 +555,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -520,32 +589,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{EDFA8466-F615-4518-BC7F-F39A8C95C919}"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{EDFA8466-F615-4518-BC7F-F39A8C95C919}"/>
+    <cellStyle name="표준_워크플로우" xfId="3" xr:uid="{7A39A625-7038-4CE3-83CF-CCE8FF3C883D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,473 +921,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="14"/>
+    <col min="9" max="9" width="41.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="51.5703125" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="G14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="13" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="C17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G20" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1433,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
@@ -1342,67 +1446,67 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyungsoo.kim\Workspaces\UiPath\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16956CC-5C61-448E-9CE7-499EBAA4EF14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202387C-CAC6-416B-8DEA-1BD326D3498D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37665" yWindow="-1530" windowWidth="37215" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
   <si>
     <t>Yes</t>
   </si>
@@ -177,9 +177,6 @@
     <t>비워진 조건문 구문</t>
   </si>
   <si>
-    <t>If Then 블록(FlowDecision의 경우 True branch, True branch)에서 작업이 수행되도록 조건을 다시 정의 하세요.</t>
-  </si>
-  <si>
     <t>프로젝트 내부에서는 워크플로우 파일의 이름을 서로 다르게 만들어 사용하세요.</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -422,13 +419,90 @@
   <si>
     <t>실행 지연은 전체 로봇 성능에 불필요하게 영향을 미칠 수 있으므로 사용을 최소한으로 제한해야 합니다. 동기화에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-ui-synchronization을 참조하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undocumented Parallel activity</t>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedParallelActivity.xaml</t>
+  </si>
+  <si>
+    <t>Using the Parallel activity can make the workflow harder to understand and might lead to unexpected results when combined with UI interactions. If it is necessary to use the Parallel activity, include an annotation to explain the situation.
+For more about the Parallel activity, please refer to https://docs.microsoft.com/en-us/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
+  </si>
+  <si>
+    <t>Verify whether the Parallel activity is really necessary and, if it is, include an annotation explaning why it is being used.</t>
+  </si>
+  <si>
+    <t>Hardcoded password</t>
+  </si>
+  <si>
+    <t>Checks\Standard\HardcodedPassword.xaml</t>
+  </si>
+  <si>
+    <t>Passwords that are hardcoded into workflows can be a serious security threat since they can be easily recovered by unauthorized parties. For more about protecting sensitive data, please refer to https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
+  </si>
+  <si>
+    <t>Passwords should be stored in secure locations, like Orchestrator or Windows Credential Manager.</t>
+  </si>
+  <si>
+    <t>Undocumented Image-based activities</t>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedImageBasedActivities.xaml</t>
+  </si>
+  <si>
+    <t>The use of image-based activities (e.g., Click Image and Wait Image Vanish) is not usually recommended, because they are sensitive to screen resolutions and image quality.
+In cases they must be used, it is a good practice to include an annotation to the activity to explain the situation.</t>
+  </si>
+  <si>
+    <t>Confirm whether image-based activities are really necessary and, if they are, add an annotation to explain the situation.</t>
+  </si>
+  <si>
+    <t>Workflow naming convention</t>
+  </si>
+  <si>
+    <t>Checks\Custom\WorkflowFileNamingConvention.xaml</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "^[A-Z0-9]{7}_[0-9]{3}_.*$"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflows in a project should be named according to the project's naming conventions.  This check receives a regular expression that dictates the naming convention for workflow files. </t>
+  </si>
+  <si>
+    <t>Change the name of the file to match the project's naming conventions.</t>
+  </si>
+  <si>
+    <t>Mandatory files in project</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Checks\Custom\MandatoryFilesInProject.xaml</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "MandatoryFiles": "Data\\Config.xlsx,Framework\\CloseAllApplications.xaml,Framework\\GetAppCredentials.xaml,Framework\\GetTransactionData.xaml,Framework\\InitAllApplications.xaml,Framework\\InitAllSettings.xaml,Framework\\KillAllProcesses.xaml,Framework\\SetTransactionStatus.xaml,Framework\\TakeScreenshot.xaml,Main.xaml,Process.xaml"
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>The project should contain mandatory files specified by the COE or project leader. This check receives a list of files that should be in the project folder.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Include the mandatory files in the project folder.</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,21 +518,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -466,13 +540,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -618,9 +692,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{EDFA8466-F615-4518-BC7F-F39A8C95C919}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
     <cellStyle name="표준_워크플로우" xfId="3" xr:uid="{7A39A625-7038-4CE3-83CF-CCE8FF3C883D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,13 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="15" customWidth="1"/>
@@ -942,30 +1014,30 @@
     <col min="11" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="66">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="49.5">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="82.5">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1022,13 +1094,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="82.5">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1043,13 +1115,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="115.5">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1066,18 +1138,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="132">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>20</v>
@@ -1089,13 +1161,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="99">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="99">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1137,12 +1209,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="115.5">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>31</v>
@@ -1154,13 +1226,13 @@
         <v>24</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="132">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
@@ -1175,13 +1247,13 @@
         <v>24</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="66">
       <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
@@ -1196,18 +1268,18 @@
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="66">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1219,20 +1291,20 @@
         <v>3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="99">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>41</v>
@@ -1242,34 +1314,34 @@
         <v>3</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="82.5">
+      <c r="A15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="115.5">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1349,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>42</v>
@@ -1286,36 +1358,36 @@
         <v>3</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="99">
+      <c r="A17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="66">
       <c r="A18" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>47</v>
@@ -1328,94 +1400,159 @@
         <v>3</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="132">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>43</v>
+        <v>111</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="82.5">
+      <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="82.5">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="99">
+      <c r="A22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="49.5">
+      <c r="A23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="49.5">
+      <c r="A24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="9" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="49.5">
+      <c r="A25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>67</v>
+      <c r="C25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1427,13 +1564,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4DFEF-ABB7-4679-8B2C-373516D40D24}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
@@ -1444,75 +1581,98 @@
     <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="189">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{4684231F-5ABA-493C-8654-B20DAC346DD1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{4684231F-5ABA-493C-8654-B20DAC346DD1}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{FB738567-74EA-496C-A485-98E380BDFD1E}">

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202387C-CAC6-416B-8DEA-1BD326D3498D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E0B5C-1CDC-4641-BD27-CDCE1D5AF7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,45 +421,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Undocumented Parallel activity</t>
-  </si>
-  <si>
     <t>Checks\Standard\UndocumentedParallelActivity.xaml</t>
   </si>
   <si>
-    <t>Using the Parallel activity can make the workflow harder to understand and might lead to unexpected results when combined with UI interactions. If it is necessary to use the Parallel activity, include an annotation to explain the situation.
-For more about the Parallel activity, please refer to https://docs.microsoft.com/en-us/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
-  </si>
-  <si>
-    <t>Verify whether the Parallel activity is really necessary and, if it is, include an annotation explaning why it is being used.</t>
-  </si>
-  <si>
-    <t>Hardcoded password</t>
-  </si>
-  <si>
     <t>Checks\Standard\HardcodedPassword.xaml</t>
   </si>
   <si>
-    <t>Passwords that are hardcoded into workflows can be a serious security threat since they can be easily recovered by unauthorized parties. For more about protecting sensitive data, please refer to https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
-  </si>
-  <si>
-    <t>Passwords should be stored in secure locations, like Orchestrator or Windows Credential Manager.</t>
-  </si>
-  <si>
-    <t>Undocumented Image-based activities</t>
-  </si>
-  <si>
     <t>Checks\Standard\UndocumentedImageBasedActivities.xaml</t>
-  </si>
-  <si>
-    <t>The use of image-based activities (e.g., Click Image and Wait Image Vanish) is not usually recommended, because they are sensitive to screen resolutions and image quality.
-In cases they must be used, it is a good practice to include an annotation to the activity to explain the situation.</t>
-  </si>
-  <si>
-    <t>Confirm whether image-based activities are really necessary and, if they are, add an annotation to explain the situation.</t>
-  </si>
-  <si>
-    <t>Workflow naming convention</t>
   </si>
   <si>
     <t>Checks\Custom\WorkflowFileNamingConvention.xaml</t>
@@ -468,16 +436,6 @@
     <t>{ 
 "NamingPattern" : "^[A-Z0-9]{7}_[0-9]{3}_.*$"
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workflows in a project should be named according to the project's naming conventions.  This check receives a regular expression that dictates the naming convention for workflow files. </t>
-  </si>
-  <si>
-    <t>Change the name of the file to match the project's naming conventions.</t>
-  </si>
-  <si>
-    <t>Mandatory files in project</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Checks\Custom\MandatoryFilesInProject.xaml</t>
@@ -490,11 +448,592 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>The project should contain mandatory files specified by the COE or project leader. This check receives a list of files that should be in the project folder.</t>
+    <t>문서화되지 않은 병렬 액티비티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병렬 액티비티 사용은 워크플로우를 이해하기 어렵게 만들며, UI 상호작용시 기대하지 않은 결과를 도출할수 있습니다. 병렬 액티비티의 사용이 필요하다면 상황을 설명을 하는 주석을 추가하주세요. 병령 액티비티의 자세한 내용은 아래 링크를 참고 하세요. https://docs.microsoft.com/en-us/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병렬 액티비티가 정말로 필요한지 확인하세요. 만약 필요하다면 필요한 이유를 주석으로 추가하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드코드된 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 하드코드된 상태로 워크플로우에 존재하는 경우 심각한 보안 위협이 됩니다. 하드코드된 비빌번호는 누구나 쉽게 읽을수 있습니다. 민감한 데이터 보호하기 관련해서는 아래 링크를 참고하세요. https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비밀번호는 오케스트레이터나 윈도우 비밀번호 관리자 같은 안전한 저장소에 저장되어야 합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서화되지 않은 이미지 기반 액티비티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Image 와 Wait Image Vanish같은 이미지 기반 액티비티의 사용은 일반적으로 권고되지 않습니다. 이러한 액티비티는 스크린 해상도와 이미지 품질에 민감하기 때문입니다. 이미지 기반 액티비티가 반드시 사용되어야 하는 경우 이러한 상황을 설명하는 주석을 추가하는 것이 좋습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 기반 액티비티가 정말로 필요한지 확인하세요. 만약 그렇다면 상황을 설명하는 주석을 추가하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크플로우 명명 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">워크플로우 파일 이름은 프로젝트 명명 규칙에 맞아야 합니다. 이 점검은 정규식 표현으로 워크플로우 파일 이름 규칙을 기술합니다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 명명 규칙에 맞게 워크플로우 파일 이름을 변경하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Include the mandatory files in the project folder.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> COE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혹은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리더가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점검은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폴더에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>존재해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폴더에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -502,7 +1041,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -577,6 +1116,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -639,7 +1198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -689,6 +1248,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1406,25 +1968,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="132">
+    <row r="19" spans="1:7" ht="115.5">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="82.5">
@@ -1432,20 +1994,20 @@
         <v>0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="82.5">
@@ -1453,20 +2015,20 @@
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="99">
@@ -1474,22 +2036,22 @@
         <v>0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="49.5">
@@ -1566,9 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4DFEF-ABB7-4679-8B2C-373516D40D24}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
   <cols>
@@ -1650,22 +2210,22 @@
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>128</v>
+      <c r="B4" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="18" t="s">
         <v>132</v>
       </c>
     </row>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E0B5C-1CDC-4641-BD27-CDCE1D5AF7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D88C3B-479E-4604-9990-2356B7BAEEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
   <si>
     <t>Yes</t>
   </si>
@@ -168,257 +168,247 @@
     <t>반복되는 액티비티 이름</t>
   </si>
   <si>
-    <t>Checks\Custom\VariableMinimumScope\VariableMinimumScope.xaml</t>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableOverridesVariable.xaml</t>
-  </si>
-  <si>
     <t>비워진 조건문 구문</t>
   </si>
   <si>
     <t>프로젝트 내부에서는 워크플로우 파일의 이름을 서로 다르게 만들어 사용하세요.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>프로젝트의 워크플로우는 프로젝트 구성과 디버깅을 용이하게 하기 위해 고유한 이름(다른 폴더에 있더라도)을 가지는게 좋습니다.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Checks\Standard\RepeatedWorkflowName.xaml</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>반복된 워크플로우 파일 이름</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>해당 프로젝트에 project.json 파일을 생성하거나 임포트 하세요.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>project.json 파일은 프로젝트에 대한 중요한 정보를 포함하고 있으며 프로젝트를 로드할 때 UiPath Studio에서 사용합니다. 이 파일에 대한 자세한 내용은 https://studio.uipath.com/docs/about-the-projectjson-file을 참조하세요.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Checks\Standard\ProjectJsonConfigurationFile.xaml</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 설정파일이 없음 </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>이슈</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>인수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>제안</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인수 이름이 명명규칙에 어긋남 </t>
+  </si>
+  <si>
+    <t>프로젝트의 인수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 인수의 명명 규칙을 지시하는 정규식을 수신한다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
+  </si>
+  <si>
+    <t>모든 인수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
+  </si>
+  <si>
+    <t>변수 및 인수에 대한 고유한 이름을 정의하세요.</t>
+  </si>
+  <si>
+    <t>실행</t>
+  </si>
+  <si>
+    <t>이슈</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>조치</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>제안</t>
+  </si>
+  <si>
+    <t>체크 파일 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Yes</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>해당 프로젝트에 project.json 파일을 생성하거나 임포트 하세요.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>project.json 파일은 프로젝트에 대한 중요한 정보를 포함하고 있으며 프로젝트를 로드할 때 UiPath Studio에서 사용합니다. 이 파일에 대한 자세한 내용은 https://studio.uipath.com/docs/about-the-projectjson-file을 참조하세요.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Checks\Standard\ProjectJsonConfigurationFile.xaml</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">프로젝트 설정파일이 없음 </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>실행</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>이슈</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>인수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조치</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>제안</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인수 이름이 명명규칙에 어긋남 </t>
-  </si>
-  <si>
-    <t>프로젝트의 인수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 인수의 명명 규칙을 지시하는 정규식을 수신한다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
-  </si>
-  <si>
-    <t>모든 인수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
-  </si>
-  <si>
-    <t>변수 및 인수에 대한 고유한 이름을 정의하세요.</t>
-  </si>
-  <si>
-    <t>실행</t>
-  </si>
-  <si>
-    <t>이슈</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>조치</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>제안</t>
-  </si>
-  <si>
-    <t>체크 파일 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Checks\Standard\RepeatedActivityName.xaml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Checks\Standard\HotkeyWithoutSelector.xaml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">과도하게 중첩된 액티비티 구조 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">변수의 범위가 필요 이상으로 큼 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변수의 범위를 가능한 작은 범위로 제한하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>범위는 다르지만 동일한 변수이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>선택자에서 큰 idx 값을 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실행되지 않을 액티비티을 제거하는 것을 고려하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>과도하게  중첩된 구조를 방지하려면 워크플로를 더 작은 구성 요소로 분할하는 것을 고려하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오픈 브라우져가 액티비티가 사용되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 오픈 브라우저 액티비티는 브라우저 탭이나 창을 열 수 있는 편리한 방법을 제공하며, 웹 자동화 관련 활동의 컨테이너 역할을 하기도 합니다. 이 때문에 개방형 애플리케이션(Open Application)이나 Start Process(시작 프로세스) 대신 브라우저로 작업하는 것이 선호되어야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 Open Application 또는 Start Process 대신 Open Browser의 사용을 고려하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>선택자 없이 핫키 입력 액티비트가 사용됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>좀 더 자세한 제목을 추가하여 액티비티가 무엇을 하는지를 쉽게 이해할수 있도록 고려하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용되지 않은 변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용되지 않는 변수 및 인수를 제거하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변수는 워크플로우의 구성을 개선하고 다른 범위에서 의도하지 않은 사용을 방지하기 위해 가능한 가장 안쪽 범위에서 정의되어야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기술적으로 두 변수의 이름이 같은 것은 가능하지만, 어떤 변수가 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변수가 서로 다른 범위에 있더라도 변수에 대한 고유한 이름을 정의하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">인수와 동일한 변수이름 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Send Hotkey activity를 사용할 때 선택자를 지정하거나 컨테이너 안에 포함하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>액티비티의 이름은 그것이 어떻게 사용되고 있는지를 명확하게 알려야 합니다. 기본 이름은 대부분의 경우 좋은 설명을 제공하지만, 때로는 너무 일반적이어서 문맥이 명확하지 않을 때는 정보를 더 추가하는 것이 좋습니다. 이 검사는 동일한 일반 이름이 여러 번 사용되는 것을 나타낼 수 있는 동일한 이름을 가진 활동을 검색합니다. 이 점검은 얼마나 많은 활동들이 동일한 이름을 가질 수 있는 지의 임계값을 설정합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>워크플로우에는 실행에 필요한 변수 및 인수만 있어야 합니다. 사용되지 않는 변수와 인수는 프로젝트를 더 이해하기 어렵게 만들어 제거되어야 합니다. 사용되지 않는 변수를 모두 제거하려면 UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)의 "사용되지 않은 변수 제거" 버튼을 사용하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>If Then 블록(FlowDecision의 경우 True branch)에서 작업이 수행되도록 조건을 다시 정의 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>액티비티(또는 FlowDecision Activision Activity)에서는 항상 Then 블록(True branch)을 사용하도록 조건을 정의하는 것이 좋습니다. 빈 Then 블록(True Branch)을 가지면 워크플로를 이해하기 어려워집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변수와 인수의 이름이 같은 경우 기술적으로 가능하지만, 어떤 것이 사용되는지에 대한 혼동을 초래하고 디버깅 과정을 더 어렵게 만들 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>선택자 없이 핫키 작업 전송은 예정된 실행을 방지하는 모든 응용 프로그램(예: Windows 알림 및 바이러스 백신 팝업)에 의해 차단될 수 있어요. 이 때문에 선택자를 사용하거나 선택자가 있는 컨테이너에 포함시키는 것이 좋습니다(예: 창 연결 또는 브라우저 연결).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일반적으로 중첩된 활동이 너무 많은 워크플로우를 보고 이해하는 것이 더 어렵기 때문에 중첩된 구조를 피하는 것이 좋습니다. 대신 워크플로를 작은 워크플로로 분리하고 워크플로 파일 호출 작업을 사용하여 워크플로를 호출하는 것이 더 나을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>워크플로우에는 실행을 위해 필요한 활동만 있어야 하며, 플로우차트의 노드에 설명되거나 연결되지 않은 활동은 제거되어야 합니다. 코멘트 활동을 유지해야 하는 경우 이유를 설명하기 위해 주석을 추가하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>워크플로에는 특정 목적에 사용되는 시퀀스만 포함되어야 합니다. 빈 시퀀스는 워크플로를 어수선하게 만들 뿐이므로 사용하지 않아요. 또한 (다른 순서라 하더라도) 하나의 내부 활동만 포함하는 순서나 워크플로우를 대개 프로젝트의 기능성에 영향을 주지 않고 제거할 수 있습니다. 시퀀스를 제거하려면 UiPath Studio (https://studio.uipath.com/docs/the-user-interface#section-the-context-menu) 에서 컨텍스트 메뉴의 시퀀스 제거 옵션을 사용하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>idx 속성은 인터페이스 계층의 순서에 따라 동일한 선택자로 요소를 구분하는 데 사용됩니다. 이 순서는 화면의 요소가 변경되면 변경될 수 있으므로 idx 속성의 값을 낮은 값으로 유지하여 잘못된 요소의 선택을 방지해야 합니다. 이 점검은 idx 속성의 값에 대한 임계값을 설정합니다. 선택기에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-selectors을 참조하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트의 변수는 프로젝트를 더 쉽게 이해하고 유지할 수 있도록 하기 때문에 지정된 명명 규칙을 따라야 합니다. 이 검사는 변수에 대한 명명 규칙을 지시하는 정규식을 기술합니다. 명명 규칙에 대한 자세한 내용은 https://studio.uipath.com/docs/workflow-design#section-naming-conventions을 참조하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예외는 목적을 가지고 잡아야 하며, 오류 메시지를 예방할 수 있어야 합니다. 이 때문에 예외 처리 자체 외에 Try Catch 액티비티의 캐치 블록에 로그 메시지를 삽입하는 것이 좋습니다. 오류 처리에 대한 자세한 내용은 https://studio.uipath.com/docs/project-organization#section-error-handling을 참조하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실행 지연은 전체 로봇 성능에 불필요하게 영향을 미칠 수 있으므로 사용을 최소한으로 제한해야 합니다. 동기화에 대한 자세한 내용은 https://studio.uipath.com/docs/ui-automation#section-ui-synchronization을 참조하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Checks\Standard\UndocumentedParallelActivity.xaml</t>
@@ -439,61 +429,61 @@
   </si>
   <si>
     <t>Checks\Custom\MandatoryFilesInProject.xaml</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{
   "MandatoryFiles": "Data\\Config.xlsx,Framework\\CloseAllApplications.xaml,Framework\\GetAppCredentials.xaml,Framework\\GetTransactionData.xaml,Framework\\InitAllApplications.xaml,Framework\\InitAllSettings.xaml,Framework\\KillAllProcesses.xaml,Framework\\SetTransactionStatus.xaml,Framework\\TakeScreenshot.xaml,Main.xaml,Process.xaml"
 }</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>문서화되지 않은 병렬 액티비티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병렬 액티비티 사용은 워크플로우를 이해하기 어렵게 만들며, UI 상호작용시 기대하지 않은 결과를 도출할수 있습니다. 병렬 액티비티의 사용이 필요하다면 상황을 설명을 하는 주석을 추가하주세요. 병령 액티비티의 자세한 내용은 아래 링크를 참고 하세요. https://docs.microsoft.com/en-us/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병렬 액티비티가 정말로 필요한지 확인하세요. 만약 필요하다면 필요한 이유를 주석으로 추가하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하드코드된 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호가 하드코드된 상태로 워크플로우에 존재하는 경우 심각한 보안 위협이 됩니다. 하드코드된 비빌번호는 누구나 쉽게 읽을수 있습니다. 민감한 데이터 보호하기 관련해서는 아래 링크를 참고하세요. https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">비밀번호는 오케스트레이터나 윈도우 비밀번호 관리자 같은 안전한 저장소에 저장되어야 합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문서화되지 않은 이미지 기반 액티비티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Click Image 와 Wait Image Vanish같은 이미지 기반 액티비티의 사용은 일반적으로 권고되지 않습니다. 이러한 액티비티는 스크린 해상도와 이미지 품질에 민감하기 때문입니다. 이미지 기반 액티비티가 반드시 사용되어야 하는 경우 이러한 상황을 설명하는 주석을 추가하는 것이 좋습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이미지 기반 액티비티가 정말로 필요한지 확인하세요. 만약 그렇다면 상황을 설명하는 주석을 추가하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>워크플로우 명명 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">워크플로우 파일 이름은 프로젝트 명명 규칙에 맞아야 합니다. 이 점검은 정규식 표현으로 워크플로우 파일 이름 규칙을 기술합니다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 명명 규칙에 맞게 워크플로우 파일 이름을 변경하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,7 +543,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -936,7 +926,7 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1034,19 +1024,112 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Checks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\VariableMinimumScope\VariableMinimumScope.xaml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Checks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\VariableOverridesVariable.xaml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Checks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\VariableOverridesArgument.xaml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1136,6 +1219,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1190,66 +1280,72 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1578,25 +1674,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="66">
@@ -1656,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>12</v>
@@ -1677,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
@@ -1700,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>19</v>
@@ -1711,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>20</v>
@@ -1723,10 +1819,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="99">
@@ -1776,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>31</v>
@@ -1788,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>33</v>
@@ -1809,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>36</v>
@@ -1830,10 +1926,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="66">
@@ -1841,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1853,10 +1949,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1866,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>41</v>
@@ -1876,31 +1972,31 @@
         <v>3</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="82.5">
       <c r="A15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="115.5">
@@ -1911,7 +2007,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>42</v>
@@ -1920,39 +2016,39 @@
         <v>3</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="99">
       <c r="A17" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66">
       <c r="A18" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>43</v>
@@ -1962,10 +2058,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="115.5">
@@ -1973,20 +2069,20 @@
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="82.5">
@@ -1994,20 +2090,20 @@
         <v>0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="82.5">
@@ -2015,43 +2111,41 @@
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="99">
-      <c r="A22" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="49.5">
+      <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="49.5">
@@ -2062,17 +2156,17 @@
         <v>79</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="49.5">
@@ -2080,45 +2174,47 @@
         <v>0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="49.5">
-      <c r="A25" s="13" t="s">
-        <v>0</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="99">
+      <c r="A25" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2143,94 +2239,94 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5">
       <c r="A2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5">
       <c r="A3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="189">
-      <c r="A4" s="8" t="s">
-        <v>52</v>
+      <c r="A4" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{4684231F-5ABA-493C-8654-B20DAC346DD1}">
       <formula1>"Fix, Double check"</formula1>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宮一良彦\OneDrive - 株式会社 Augmentation Bridge\ドキュメント\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D88C3B-479E-4604-9990-2356B7BAEEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{86D88C3B-479E-4604-9990-2356B7BAEEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{463E2C4C-24E7-42EB-816D-6F46905DE776}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="640" windowWidth="14540" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="136">
   <si>
     <t>Yes</t>
   </si>
@@ -454,10 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호가 하드코드된 상태로 워크플로우에 존재하는 경우 심각한 보안 위협이 됩니다. 하드코드된 비빌번호는 누구나 쉽게 읽을수 있습니다. 민감한 데이터 보호하기 관련해서는 아래 링크를 참고하세요. https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">비밀번호는 오케스트레이터나 윈도우 비밀번호 관리자 같은 안전한 저장소에 저장되어야 합니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1111,6 +1107,60 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>비밀번호가 하드코드된 상태로 워크플로우에 존재하는 경우 심각한 보안 위협이 됩니다. 하드코드된 비빌번호는 누구나 쉽게 읽을수 있습니다. 민이 검사는 하드 코드되어 있는지 여부를 확인하는 속성의 목록을받습니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감한 데이터 보호하기 관련해서는 아래 링크를 참고하세요. https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+"Attributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: "Password"
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1350,7 +1400,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{857AF54A-0E1E-42C2-B1A1-BFE083F88F49}"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{EDFA8466-F615-4518-BC7F-F39A8C95C919}"/>
     <cellStyle name="표준_워크플로우" xfId="3" xr:uid="{7A39A625-7038-4CE3-83CF-CCE8FF3C883D}"/>
@@ -1655,21 +1705,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="14"/>
-    <col min="9" max="9" width="41.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="14.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="64.1796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="14"/>
+    <col min="9" max="9" width="41.54296875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="51.54296875" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
@@ -1695,7 +1747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66">
+    <row r="2" spans="1:10" ht="68">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="82.5">
+    <row r="4" spans="1:10" ht="85">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="82.5">
+    <row r="5" spans="1:10" ht="85">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="115.5">
+    <row r="6" spans="1:10" ht="119">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="132">
+    <row r="7" spans="1:10" ht="119">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1877,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="99">
+    <row r="8" spans="1:10" ht="102">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="99">
+    <row r="9" spans="1:10" ht="102">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="115.5">
+    <row r="10" spans="1:10" ht="102">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="132">
+    <row r="11" spans="1:10" ht="119">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="66">
+    <row r="12" spans="1:10" ht="51">
       <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="66">
+    <row r="13" spans="1:10" ht="68">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2009,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="99">
+    <row r="14" spans="1:10" ht="102">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +2030,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="82.5">
+    <row r="15" spans="1:10" ht="68">
       <c r="A15" s="13" t="s">
         <v>73</v>
       </c>
@@ -1999,7 +2051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="115.5">
+    <row r="16" spans="1:10" ht="102">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2074,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="99">
+    <row r="17" spans="1:7" ht="85">
       <c r="A17" s="13" t="s">
         <v>73</v>
       </c>
@@ -2043,7 +2095,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="66">
+    <row r="18" spans="1:7" ht="51">
       <c r="A18" s="13" t="s">
         <v>73</v>
       </c>
@@ -2064,7 +2116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="115.5">
+    <row r="19" spans="1:7" ht="119">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="82.5">
+    <row r="20" spans="1:7" ht="86">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -2095,23 +2147,25 @@
       <c r="C20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="82.5">
+    </row>
+    <row r="21" spans="1:7" ht="85">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>110</v>
@@ -2121,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="49.5">
+    </row>
+    <row r="22" spans="1:7" ht="35">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2189,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -2148,7 +2202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="49.5">
+    <row r="23" spans="1:7" ht="51">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
@@ -2169,7 +2223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="49.5">
+    <row r="24" spans="1:7" ht="51">
       <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2231,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -2190,12 +2244,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="99">
+    <row r="25" spans="1:7" ht="102">
       <c r="A25" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>111</v>
@@ -2207,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2226,15 +2280,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="31.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="9.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
@@ -2260,7 +2314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="65">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -2281,7 +2335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="39">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -2302,12 +2356,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="189">
+    <row r="4" spans="1:7" ht="169">
       <c r="A4" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>113</v>
@@ -2319,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D88C3B-479E-4604-9990-2356B7BAEEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416835BB-BA7D-46C9-B593-4B3C1D7DBF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>Yes</t>
   </si>
@@ -1111,6 +1111,27 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unallowed activity</t>
+  </si>
+  <si>
+    <t>Checks\Custom\UnallowedActivity.xaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"WhiteList" : "",
+"BlackList": "UnallowedActivity01,UnallowedActivity02,UnallowedActivity03"
+} </t>
+  </si>
+  <si>
+    <t>Workflows should contain only activities allowed by the Centre of Excellence (COE). If an activity is present in the blacklist or is not present in the whitelist, it should not be used. The whitelist and the blacklist are passed as arguments to this check, and they contain names of activities as specified by the last part of their class name (for example, "Sequence" instead of "System.Activities.Statements.Sequence" and "SetCredential" instead of "UiPath.Core.Activities.SetCredential"). The class name of an activity can be found at the top of the Properties panel in UiPath Studio.</t>
+  </si>
+  <si>
+    <t>Remove the activity or request its addition to the activities whitelist (or its removal from the activities blacklist).</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1347,6 +1368,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1653,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
   </sheetViews>
@@ -2190,26 +2214,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="99">
-      <c r="A25" s="19" t="s">
-        <v>130</v>
+    <row r="25" spans="1:7" ht="165">
+      <c r="A25" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="99">
+      <c r="A26" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416835BB-BA7D-46C9-B593-4B3C1D7DBF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BBA04-17B4-4AF3-8A45-D2B45CB75DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>Yes</t>
   </si>
@@ -1132,6 +1132,18 @@
   </si>
   <si>
     <t>Remove the activity or request its addition to the activities whitelist (or its removal from the activities blacklist).</t>
+  </si>
+  <si>
+    <t>Log browser URL</t>
+  </si>
+  <si>
+    <t>Checks\Custom\LogBrowserURL.xaml</t>
+  </si>
+  <si>
+    <t>To have more visibility on what is accessed by robots, a Log Message activity should be used immediately before or immediately after an Open Browser activity to log the URL being used in the Open Browser activity.</t>
+  </si>
+  <si>
+    <t>Add a Log Message activity immediately before or immediately after Open Browser and log the URL used in the Open Browser activity.</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
   </sheetViews>
@@ -2237,26 +2249,47 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="99">
-      <c r="A26" s="19" t="s">
-        <v>130</v>
+    <row r="26" spans="1:7" ht="82.5">
+      <c r="A26" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>112</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="99">
+      <c r="A27" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D88C3B-479E-4604-9990-2356B7BAEEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC08AD0-4704-4C16-B73E-058BF00BDC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
@@ -77,20 +77,10 @@
     <t>Checks\Standard\VariableNamingConvention.xaml</t>
   </si>
   <si>
-    <t>{ 
-"NamingPattern" : "(^(dt_)*([A-Z][a-z0-9]*)+$)"
-}</t>
-  </si>
-  <si>
     <t>모든 변수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
   </si>
   <si>
     <t>Checks\Standard\ArgumentNamingConvention.xaml</t>
-  </si>
-  <si>
-    <t>{ 
-"NamingPattern" : "(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)"
-}</t>
   </si>
   <si>
     <t>문서화되지 않은 기본 클릭</t>
@@ -1111,6 +1101,16 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(dt_)?([A-Z][a-z0-9]*)+$)"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(in_|out_|io_)(dt_)?([A-Z][a-z0-9]*)+)"
+}</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1140,21 +1140,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1162,13 +1162,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1655,47 +1655,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="14"/>
-    <col min="9" max="9" width="41.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="14.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="64.1796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="14"/>
+    <col min="9" max="9" width="41.54296875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="51.54296875" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="66">
+    </row>
+    <row r="2" spans="1:10" ht="68">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="82.5">
+    <row r="4" spans="1:10" ht="85">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1752,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="82.5">
+    <row r="5" spans="1:10" ht="85">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1773,13 +1775,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="115.5">
+    <row r="6" spans="1:10" ht="119">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1790,427 +1792,427 @@
         <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="119">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="99">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="102">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="99">
+    </row>
+    <row r="9" spans="1:10" ht="102">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="119">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="132">
+    </row>
+    <row r="11" spans="1:10" ht="136">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="68">
       <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="66">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="68">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="99">
+    <row r="14" spans="1:10" ht="102">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="85">
+      <c r="A15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="82.5">
-      <c r="A15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="115.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="119">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="99">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102">
       <c r="A17" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="66">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68">
       <c r="A18" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="115.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="119">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="82.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="85">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="82.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="85">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="49.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="49.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="49.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51">
       <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="99">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="102">
       <c r="A25" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2226,103 +2228,103 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="31.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="9.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5">
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="72.5">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="43.5">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="189">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="188.5">
       <c r="A4" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BBA04-17B4-4AF3-8A45-D2B45CB75DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BD11E-8015-454D-84C9-3525AAB3B038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크플로우" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
   <si>
     <t>Yes</t>
   </si>
@@ -1116,9 +1116,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Unallowed activity</t>
-  </si>
-  <si>
     <t>Checks\Custom\UnallowedActivity.xaml</t>
   </si>
   <si>
@@ -1128,22 +1125,37 @@
 } </t>
   </si>
   <si>
-    <t>Workflows should contain only activities allowed by the Centre of Excellence (COE). If an activity is present in the blacklist or is not present in the whitelist, it should not be used. The whitelist and the blacklist are passed as arguments to this check, and they contain names of activities as specified by the last part of their class name (for example, "Sequence" instead of "System.Activities.Statements.Sequence" and "SetCredential" instead of "UiPath.Core.Activities.SetCredential"). The class name of an activity can be found at the top of the Properties panel in UiPath Studio.</t>
-  </si>
-  <si>
-    <t>Remove the activity or request its addition to the activities whitelist (or its removal from the activities blacklist).</t>
-  </si>
-  <si>
-    <t>Log browser URL</t>
-  </si>
-  <si>
     <t>Checks\Custom\LogBrowserURL.xaml</t>
   </si>
   <si>
-    <t>To have more visibility on what is accessed by robots, a Log Message activity should be used immediately before or immediately after an Open Browser activity to log the URL being used in the Open Browser activity.</t>
-  </si>
-  <si>
-    <t>Add a Log Message activity immediately before or immediately after Open Browser and log the URL used in the Open Browser activity.</t>
+    <t>워크플로우에는 Center of Excellence (CoE)가 허용하는 액티비티만 포함되어야 합니다. 만약, 액티비티가 블랙리스트에 있거나 화이트리스트에 없는 경우에는, 사용해서는 안됩니다. 화이트리스트와 블랙리스트는 이 체크에 인수(Argument)로 전달되며, 허용되지 않는 액티비티들을 포함하고 있습니다. 각각의 인수의 이름은 액티비티의 클래스의 이름의 마지막 부분과 동일하게 지정해야 합니다. (예를 들어서, "System.Activities.Statements.Sequence"대신에 "Sequence"로 지정. "UiPath.Core.Activities.SetCredential"대신에 "SetCredential"로 지정.) 액티비티의 클래스 이름은 UiPath Studio의 Properties 패널의 상단에서 찾을 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">액티비티를 지우거나 화이트리스트에 추가요청 혹은 블랙리스트에서 삭제요청을 하세요. </t>
+  </si>
+  <si>
+    <t>로봇이 액세스하는 내용에 대한 가시성을 높이려면 Open Browser 액티비티 직전 또는 직후에 Log Message 액티비티를 사용하여 Open Browser 액티비티에서 사용되는 URL을 기록해야 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Browser액티비티 진적 또는 직후에 Log Message 액티비티를 추가하여 Open Browser 액티비티에서 사용되는 URL을 기록하세요. </t>
+  </si>
+  <si>
+    <t>허용되지 않는 액티비티</t>
+  </si>
+  <si>
+    <t>로그 브라우저 URL</t>
+  </si>
+  <si>
+    <t>Unadjusted For Each</t>
+  </si>
+  <si>
+    <t>Checks\Standard\UnadjustedForEach.xaml</t>
+  </si>
+  <si>
+    <t>To further improve the readability of the workflow, it is recommended to change the name and type of the "item" loop variable in the For Each activity according to the data being processed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify the type and the name of the "item" loop variable in the For Each activity to match the data being processed. </t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1172,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1173,21 +1185,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1195,13 +1207,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1689,23 +1701,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="14"/>
-    <col min="9" max="9" width="41.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="14.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="64.1796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="14"/>
+    <col min="9" max="9" width="41.54296875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="51.54296875" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
@@ -1731,7 +1745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66">
+    <row r="2" spans="1:10" ht="68">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="82.5">
+    <row r="4" spans="1:10" ht="85">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="82.5">
+    <row r="5" spans="1:10" ht="85">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="115.5">
+    <row r="6" spans="1:10" ht="119">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="132">
+    <row r="7" spans="1:10" ht="119">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="99">
+    <row r="8" spans="1:10" ht="102">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="99">
+    <row r="9" spans="1:10" ht="102">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="115.5">
+    <row r="10" spans="1:10" ht="119">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="132">
+    <row r="11" spans="1:10" ht="136">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="66">
+    <row r="12" spans="1:10" ht="68">
       <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1982,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="66">
+    <row r="13" spans="1:10" ht="68">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2007,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="99">
+    <row r="14" spans="1:10" ht="102">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="82.5">
+    <row r="15" spans="1:10" ht="85">
       <c r="A15" s="13" t="s">
         <v>73</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="115.5">
+    <row r="16" spans="1:10" ht="119">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="99">
+    <row r="17" spans="1:7" ht="102">
       <c r="A17" s="13" t="s">
         <v>73</v>
       </c>
@@ -2079,7 +2093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="66">
+    <row r="18" spans="1:7" ht="68">
       <c r="A18" s="13" t="s">
         <v>73</v>
       </c>
@@ -2100,7 +2114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="115.5">
+    <row r="19" spans="1:7" ht="119">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="82.5">
+    <row r="20" spans="1:7" ht="85">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="82.5">
+    <row r="21" spans="1:7" ht="85">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="49.5">
+    <row r="22" spans="1:7" ht="51">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="49.5">
+    <row r="23" spans="1:7" ht="51">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="49.5">
+    <row r="24" spans="1:7" ht="51">
       <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
@@ -2226,70 +2240,91 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="165">
-      <c r="A25" s="21" t="s">
-        <v>135</v>
+    <row r="25" spans="1:7" ht="68">
+      <c r="A25" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>138</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="82.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="187">
       <c r="A26" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="85">
+      <c r="A27" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="99">
-      <c r="A27" s="19" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="102">
+      <c r="A28" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2306,15 +2341,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="31.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="9.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
@@ -2340,7 +2375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.5">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="72.5">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -2361,7 +2396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="40.5">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="43.5">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -2382,7 +2417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="189">
+    <row r="4" spans="1:7" ht="188.5">
       <c r="A4" s="20" t="s">
         <v>134</v>
       </c>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BD11E-8015-454D-84C9-3525AAB3B038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2710AE-2040-41E4-A1E0-EACFF27577D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
   <si>
     <t>Yes</t>
   </si>
@@ -1156,6 +1156,18 @@
   </si>
   <si>
     <t xml:space="preserve">Modify the type and the name of the "item" loop variable in the For Each activity to match the data being processed. </t>
+  </si>
+  <si>
+    <t>Missing project entry point workflow</t>
+  </si>
+  <si>
+    <t>Checks\Standard\MissingProjectEntryPointWorkflow.xaml</t>
+  </si>
+  <si>
+    <t>The project.json configuration file defines a workflow (usually Main.xaml) to act as the entry point for the project and this workflow should be included in the project.</t>
+  </si>
+  <si>
+    <t>Make sure the project contains the entry point workflow as defined in project.json.</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1395,6 +1407,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2337,9 +2364,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4DFEF-ABB7-4679-8B2C-373516D40D24}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -2417,36 +2446,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="188.5">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="43.5">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="188.5">
+      <c r="A5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{4684231F-5ABA-493C-8654-B20DAC346DD1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{4684231F-5ABA-493C-8654-B20DAC346DD1}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{FB738567-74EA-496C-A485-98E380BDFD1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{FB738567-74EA-496C-A485-98E380BDFD1E}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2710AE-2040-41E4-A1E0-EACFF27577D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69969A88-C500-4C14-B455-1E182A9698F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
   <si>
     <t>Yes</t>
   </si>
@@ -1168,6 +1168,24 @@
   </si>
   <si>
     <t>Make sure the project contains the entry point workflow as defined in project.json.</t>
+  </si>
+  <si>
+    <t>Unallowed application</t>
+  </si>
+  <si>
+    <t>Checks\Custom\UnallowedApplication.xaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"WhiteList" : "",
+"BlackList": "notepad.exe,explorer.exe"
+} </t>
+  </si>
+  <si>
+    <t>Workflows should interact only with applications allowed by the Centre of Excellence (CoE). If an application is present in the blacklist or is not present in the whitelist of activities, it should not be used by the robot. The whitelist and the blacklist are passed as arguments to this check and contain names of applications' executable files. Each name must be specified as the application's executable file name (for example, "notepad.exe" instead of "Notepad").</t>
+  </si>
+  <si>
+    <t>Remove interactions with unallowed applications from the workflow or request the addition of the application to the whitelist (or its removal from the blacklist).</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2311,52 +2329,80 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="85">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="136">
       <c r="A27" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="85">
+      <c r="A28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="102">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:7" ht="102">
+      <c r="A29" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="E29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27" xr:uid="{ACE81490-3427-43C2-9F75-CF116342501E}">
+      <formula1>"Fix, Double check"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69969A88-C500-4C14-B455-1E182A9698F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E8A3A-C0ED-400B-B48C-1367AA38A84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
   <si>
     <t>Yes</t>
   </si>
@@ -1186,6 +1186,23 @@
   </si>
   <si>
     <t>Remove interactions with unallowed applications from the workflow or request the addition of the application to the whitelist (or its removal from the blacklist).</t>
+  </si>
+  <si>
+    <t>Activity naming convention</t>
+  </si>
+  <si>
+    <t>Checks\Custom\ActivityNamingConvention.xaml</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "^Private: .*$"
+}</t>
+  </si>
+  <si>
+    <t>Activities in a project should follow a specified naming convention, since it makes it easier to understand the project and maintain it. This check receives a regular expression that dictates the naming convention for activities.</t>
+  </si>
+  <si>
+    <t>Change the name of the activity to match the project's naming conventions.</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2394,6 +2411,29 @@
       </c>
       <c r="G29" s="9" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="85">
+      <c r="A30" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E8A3A-C0ED-400B-B48C-1367AA38A84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B89C2-365A-4381-BF1B-D2838C01D736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
   <si>
     <t>Yes</t>
   </si>
@@ -1203,6 +1203,19 @@
   </si>
   <si>
     <t>Change the name of the activity to match the project's naming conventions.</t>
+  </si>
+  <si>
+    <t>No User Interaction</t>
+  </si>
+  <si>
+    <t>Checks\Custom\NoUserInteraction.xaml</t>
+  </si>
+  <si>
+    <t>Unattended robots are expected to work in an unattended terminal environment, so do not display message dialogs or input dialogs to users. This prevents the Unattended robot from stopping by requesting user interaction.
+This check checks that no activities that require user interaction are used.</t>
+  </si>
+  <si>
+    <t>If the process is to be run on Unattended robots, remove activities that expect user interaction.</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2434,6 +2447,27 @@
       </c>
       <c r="G30" s="9" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="102">
+      <c r="A31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B89C2-365A-4381-BF1B-D2838C01D736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2A4CF-8CAA-4614-92E9-91005A2B410B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,20 +77,10 @@
     <t>Checks\Standard\VariableNamingConvention.xaml</t>
   </si>
   <si>
-    <t>{ 
-"NamingPattern" : "(^(dt_)*([A-Z][a-z0-9]*)+$)"
-}</t>
-  </si>
-  <si>
     <t>모든 변수가 프로젝트의 명명 규칙을 따르는지 확인하세요.</t>
   </si>
   <si>
     <t>Checks\Standard\ArgumentNamingConvention.xaml</t>
-  </si>
-  <si>
-    <t>{ 
-"NamingPattern" : "(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)"
-}</t>
   </si>
   <si>
     <t>문서화되지 않은 기본 클릭</t>
@@ -1176,12 +1166,6 @@
     <t>Checks\Custom\UnallowedApplication.xaml</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-"WhiteList" : "",
-"BlackList": "notepad.exe,explorer.exe"
-} </t>
-  </si>
-  <si>
     <t>Workflows should interact only with applications allowed by the Centre of Excellence (CoE). If an application is present in the blacklist or is not present in the whitelist of activities, it should not be used by the robot. The whitelist and the blacklist are passed as arguments to this check and contain names of applications' executable files. Each name must be specified as the application's executable file name (for example, "notepad.exe" instead of "Notepad").</t>
   </si>
   <si>
@@ -1216,6 +1200,22 @@
   </si>
   <si>
     <t>If the process is to be run on Unattended robots, remove activities that expect user interaction.</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(dt_)?([A-Z][a-z0-9]*)+$)"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(in_|out_|io_)(dt_)?([A-Z][a-z0-9]*)+)"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"WhiteList" : "",
+"BlackList": "application1.exe,application2.exe"
+} </t>
   </si>
 </sst>
 </file>
@@ -1799,25 +1799,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="68">
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>12</v>
@@ -1898,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
@@ -1915,16 +1915,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="119">
@@ -1932,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="102">
@@ -1955,20 +1955,20 @@
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="102">
@@ -1976,20 +1976,20 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="119">
@@ -1997,22 +1997,22 @@
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="136">
@@ -2020,20 +2020,20 @@
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68">
@@ -2041,20 +2041,20 @@
         <v>0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="68">
@@ -2062,22 +2062,22 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -2087,41 +2087,41 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="85">
       <c r="A15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="119">
@@ -2129,64 +2129,64 @@
         <v>0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="102">
       <c r="A17" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="68">
       <c r="A18" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="119">
@@ -2194,20 +2194,20 @@
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="85">
@@ -2215,20 +2215,20 @@
         <v>0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="85">
@@ -2236,20 +2236,20 @@
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="51">
@@ -2257,20 +2257,20 @@
         <v>0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="51">
@@ -2278,20 +2278,20 @@
         <v>0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="51">
@@ -2299,20 +2299,20 @@
         <v>0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="68">
@@ -2320,154 +2320,154 @@
         <v>0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="187">
       <c r="A26" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="G26" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="136">
       <c r="A27" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85">
       <c r="A28" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="102">
       <c r="A29" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="85">
       <c r="A30" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="102">
       <c r="A31" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2503,67 +2503,67 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="72.5">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="43.5">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="26" customFormat="1" ht="43.5">
@@ -2571,43 +2571,43 @@
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="188.5">
       <c r="A5" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2A4CF-8CAA-4614-92E9-91005A2B410B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724DC758-1264-44F9-A72E-BE3A8AEDE561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
     <t>Yes</t>
   </si>
@@ -1216,6 +1216,18 @@
 "WhiteList" : "",
 "BlackList": "application1.exe,application2.exe"
 } </t>
+  </si>
+  <si>
+    <t>Unsuitable exception type</t>
+  </si>
+  <si>
+    <t>Checks\Custom\UnsuitableExceptionType.xaml</t>
+  </si>
+  <si>
+    <t>When throwing exceptions, it is recommended to properly distinguish between application-originated and business-originated exceptions. The type of the exception to be thrown or caught should be as specific as possible, and Exception and ApplicationException should be avoided.</t>
+  </si>
+  <si>
+    <t>Use specific exception types and avoid using generic types such as Exception and ApplicationException.</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2468,6 +2480,27 @@
       </c>
       <c r="G31" s="9" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="85">
+      <c r="A32" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724DC758-1264-44F9-A72E-BE3A8AEDE561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B850B-9C1C-4F76-B113-918FD66969E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="176">
   <si>
     <t>Yes</t>
   </si>
@@ -1228,6 +1228,24 @@
   </si>
   <si>
     <t>Use specific exception types and avoid using generic types such as Exception and ApplicationException.</t>
+  </si>
+  <si>
+    <t>ReadOnly property of constant</t>
+  </si>
+  <si>
+    <t>Checks\Custom\ReadOnlyPropertyOfConstant.xaml</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^([A-Z][A-Z0-9]*)$)"
+}</t>
+  </si>
+  <si>
+    <t>Constant is a variable that does not change the value set by the default value. 
+It must follow a specific naming convention so that it can be distinguished from other variables. In addition, ReadOnly must be specified in the variable's Modifiers property.</t>
+  </si>
+  <si>
+    <t>Variables that do not have their values modified should follow the naming convention of constants and have ReadOnly checked in their Modifiers property.</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2501,6 +2519,29 @@
       </c>
       <c r="G32" s="9" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="85">
+      <c r="A33" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B850B-9C1C-4F76-B113-918FD66969E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801605A6-FE03-447A-B8BE-C50BF7327EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="180">
   <si>
     <t>Yes</t>
   </si>
@@ -1246,6 +1246,18 @@
   </si>
   <si>
     <t>Variables that do not have their values modified should follow the naming convention of constants and have ReadOnly checked in their Modifiers property.</t>
+  </si>
+  <si>
+    <t>Directly send Outlook mail</t>
+  </si>
+  <si>
+    <t>Checks\Custom\DirectlySendOutlookMail.xaml</t>
+  </si>
+  <si>
+    <t>Check the IsDraft property of Send Outlook Mail Message activities, as specified by the CoE's security policies.</t>
+  </si>
+  <si>
+    <t>According to the CoE (Centre of Excellence)'s security policies, robots should not be allowed to directly send emails. Instead, emails created by robots should be saved as drafts and then reviewed by humans before sending.</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2542,6 +2554,27 @@
       </c>
       <c r="G33" s="9" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="68">
+      <c r="A34" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Config/KO/Checklist.xlsx
+++ b/Config/KO/Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\Workflow-Inspector\Config\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801605A6-FE03-447A-B8BE-C50BF7327EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5AF5D4-46DF-4E1E-B1BB-D60EFC45879B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,43 +1136,13 @@
     <t>로그 브라우저 URL</t>
   </si>
   <si>
-    <t>Unadjusted For Each</t>
-  </si>
-  <si>
     <t>Checks\Standard\UnadjustedForEach.xaml</t>
   </si>
   <si>
-    <t>To further improve the readability of the workflow, it is recommended to change the name and type of the "item" loop variable in the For Each activity according to the data being processed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify the type and the name of the "item" loop variable in the For Each activity to match the data being processed. </t>
-  </si>
-  <si>
-    <t>Missing project entry point workflow</t>
-  </si>
-  <si>
     <t>Checks\Standard\MissingProjectEntryPointWorkflow.xaml</t>
   </si>
   <si>
-    <t>The project.json configuration file defines a workflow (usually Main.xaml) to act as the entry point for the project and this workflow should be included in the project.</t>
-  </si>
-  <si>
-    <t>Make sure the project contains the entry point workflow as defined in project.json.</t>
-  </si>
-  <si>
-    <t>Unallowed application</t>
-  </si>
-  <si>
     <t>Checks\Custom\UnallowedApplication.xaml</t>
-  </si>
-  <si>
-    <t>Workflows should interact only with applications allowed by the Centre of Excellence (CoE). If an application is present in the blacklist or is not present in the whitelist of activities, it should not be used by the robot. The whitelist and the blacklist are passed as arguments to this check and contain names of applications' executable files. Each name must be specified as the application's executable file name (for example, "notepad.exe" instead of "Notepad").</t>
-  </si>
-  <si>
-    <t>Remove interactions with unallowed applications from the workflow or request the addition of the application to the whitelist (or its removal from the blacklist).</t>
-  </si>
-  <si>
-    <t>Activity naming convention</t>
   </si>
   <si>
     <t>Checks\Custom\ActivityNamingConvention.xaml</t>
@@ -1183,23 +1153,7 @@
 }</t>
   </si>
   <si>
-    <t>Activities in a project should follow a specified naming convention, since it makes it easier to understand the project and maintain it. This check receives a regular expression that dictates the naming convention for activities.</t>
-  </si>
-  <si>
-    <t>Change the name of the activity to match the project's naming conventions.</t>
-  </si>
-  <si>
-    <t>No User Interaction</t>
-  </si>
-  <si>
     <t>Checks\Custom\NoUserInteraction.xaml</t>
-  </si>
-  <si>
-    <t>Unattended robots are expected to work in an unattended terminal environment, so do not display message dialogs or input dialogs to users. This prevents the Unattended robot from stopping by requesting user interaction.
-This check checks that no activities that require user interaction are used.</t>
-  </si>
-  <si>
-    <t>If the process is to be run on Unattended robots, remove activities that expect user interaction.</t>
   </si>
   <si>
     <t>{ 
@@ -1218,19 +1172,7 @@
 } </t>
   </si>
   <si>
-    <t>Unsuitable exception type</t>
-  </si>
-  <si>
     <t>Checks\Custom\UnsuitableExceptionType.xaml</t>
-  </si>
-  <si>
-    <t>When throwing exceptions, it is recommended to properly distinguish between application-originated and business-originated exceptions. The type of the exception to be thrown or caught should be as specific as possible, and Exception and ApplicationException should be avoided.</t>
-  </si>
-  <si>
-    <t>Use specific exception types and avoid using generic types such as Exception and ApplicationException.</t>
-  </si>
-  <si>
-    <t>ReadOnly property of constant</t>
   </si>
   <si>
     <t>Checks\Custom\ReadOnlyPropertyOfConstant.xaml</t>
@@ -1241,30 +1183,583 @@
 }</t>
   </si>
   <si>
-    <t>Constant is a variable that does not change the value set by the default value. 
-It must follow a specific naming convention so that it can be distinguished from other variables. In addition, ReadOnly must be specified in the variable's Modifiers property.</t>
-  </si>
-  <si>
-    <t>Variables that do not have their values modified should follow the naming convention of constants and have ReadOnly checked in their Modifiers property.</t>
-  </si>
-  <si>
-    <t>Directly send Outlook mail</t>
-  </si>
-  <si>
     <t>Checks\Custom\DirectlySendOutlookMail.xaml</t>
   </si>
   <si>
-    <t>Check the IsDraft property of Send Outlook Mail Message activities, as specified by the CoE's security policies.</t>
-  </si>
-  <si>
-    <t>According to the CoE (Centre of Excellence)'s security policies, robots should not be allowed to directly send emails. Instead, emails created by robots should be saved as drafts and then reviewed by humans before sending.</t>
+    <t xml:space="preserve">Check the IsDraft property of Send Outlook Mail Message activities, as specified by the CoE's security policies. CoE보안 정책에 준해서 아웃룩 메일 보내기 액티비티에서 IsDraft 속성을 선택하세요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">누락된 시작 워크플로우 파일 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(project.json)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본값으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Main.xaml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>워크플로우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>워크플로우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함되어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>워크플로우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃룩 메일 직접 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoE의 보안 정책에 따라 로봇은 이메일을 직접 보내지 못하도록 구성되어야 합니다. 이메일은 로봇에 의해서 초안으로 저장되고 보내기 전에 담당자(사람)에 의한 검토되어야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변수의 값이 변경되지 않는다면 변수 속성에서 읽기 전용을 체크하세요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception 혹은 ApplicationException 같은 타입을 사용하지 말고 구체적인 예외 타입을 사용하세요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외를 발생시키는 경우 애플리케이션 관련 예외인지 비지니스 관련 예외인지 구분하는 것을 권고합니다. 가능한 예외는 구체적으로 지정하기를 권고합니다. 예를 들어 Exception 혹은 ApplicationException 같은 예외 타입은 사용하지 마시고 구체적인 예외 타입을 사용하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 프로세스가 무인로봇에서 실행된다면 사용자 상호동작을 기대하는 액티비티를 제거하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트의 명명 규칙에 맞게 액티비티 이름을 변경하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트에 포함된 액티비티들은 정해진 명명 규칙을 따라야 합니다. 이 규직은 프로젝트를 이해하기 쉽게하고 유지보수를 수월하게 해줍니다. 이 점검은 정규식 표현으로 액티비티 이름 규칙을 기술합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수 변수에 대한 읽기 전용 속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수 변수는 초기 값으로 설정된 이후 변경되지 않습니다. 상수 변수는 지정된 명명 규칙을 따라야 하며 다른 변수와는 구분되어야 합니다. 변수 속성에서 읽기 전용이 체크되어야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 상호작용 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적절한 예외 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무인로봇은 무인 환경에서 수행됩니다. 따라서 사용자에게 안내 메세지 혹은 입력 다이얼로그를 보여주지 마세요. 이 점검은 사용자 상호동작 액티비티로 인해 발생할 수 있는 멈춤 현상을 없앨 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티비티 명명 규칙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">허용되지 않는 애플리케이션 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">워크플로우는 CoE에서 허용한 애플리케이션들과 상호작용해야 합니다. 만약 애플리케이션이 거부목록에 포함되어 있거나 혹은 허용목록에 포함되어 있지 않다면 이 애플리케이션은 로봇에 의해 사용되지 않아야 합니다. 거부목록과 허용목록은 이 점검의 인수로 전달되며 애플리케이션의 실행화일이 각 목록에 포함되어 있습니다. 각각의 이름은 애플리케이션의 실행파일 이름입니다. (예, Notepad의 경우 Notepad가 아니라 notepad.exe 이여야 합니다) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용되지 않은 애플리케이션과의 상호작용을 제거하거나 해당 애플리케이션을 허용목록에 추가되거나, 거부목록에서 제거되도록 CoE에 요청하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정되지 않은 For Each 액티비티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">워크플로우의 가독성을 향상시키기 위해 For Each 액티비티의 반복문에서 사용되는 item 변수의 이름을 처리하는 데이터와 관련된 이름으로 변경하는 것을 권고합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Each 반복문에서 사용되는 item 변수의 타입과 이름을 처리하는 데이터와 관련된 타입과 이름으로 변경하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1373,6 +1868,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1435,7 +1944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1512,6 +2021,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1827,15 +2339,15 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.1796875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="15" customWidth="1"/>
     <col min="3" max="3" width="40.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="15" customWidth="1"/>
     <col min="6" max="6" width="64.1796875" style="15" customWidth="1"/>
     <col min="7" max="7" width="33.453125" style="15" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" style="14"/>
-    <col min="9" max="9" width="41.54296875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="51.54296875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="41.453125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="51.453125" style="14" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
@@ -1957,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>3</v>
@@ -1980,7 +2492,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>3</v>
@@ -2145,7 +2657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="85">
+    <row r="15" spans="1:10" ht="68">
       <c r="A15" s="13" t="s">
         <v>71</v>
       </c>
@@ -2189,7 +2701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="102">
+    <row r="17" spans="1:7" ht="85">
       <c r="A17" s="13" t="s">
         <v>71</v>
       </c>
@@ -2294,7 +2806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51">
+    <row r="22" spans="1:7" ht="35">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2362,20 +2874,20 @@
         <v>0</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="187">
@@ -2406,22 +2918,22 @@
         <v>133</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85">
@@ -2473,43 +2985,43 @@
         <v>128</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="102">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="68">
       <c r="A31" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="85">
@@ -2517,20 +3029,20 @@
         <v>128</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="85">
@@ -2538,43 +3050,43 @@
         <v>128</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="68">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="119">
       <c r="A34" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2593,18 +3105,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4DFEF-ABB7-4679-8B2C-373516D40D24}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="55.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.453125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
@@ -2673,25 +3185,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" ht="43.5">
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="51">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>150</v>
+      <c r="F4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="188.5">
